--- a/Hrois+Hovas+单证/01_项目需求/大运维开发计划_20201012-PSI补充.xlsx
+++ b/Hrois+Hovas+单证/01_项目需求/大运维开发计划_20201012-PSI补充.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caven/Documents/项目文档、学习文件、个人文件/项目文档/海外/horis资料库/git-doc/Hrois+Hovas+单证/01_项目需求/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caven/Documents/项目文档、学习文件、个人文件/项目文档/海外/horis资料库/overseas-projects/Hrois+Hovas+单证/01_项目需求/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3FD5E-33FB-194F-9012-670E203B5BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C6F60-67C3-F646-92EF-B697A3FFFE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="235">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,24 +776,15 @@
     <t>后端替换接口，手持端增加字段显示</t>
   </si>
   <si>
-    <t>需要安卓开发工程师协助</t>
-  </si>
-  <si>
     <t>巴基斯坦工厂条码规范化</t>
   </si>
   <si>
     <t>统一条码大小</t>
   </si>
   <si>
-    <t>袁超峰</t>
-  </si>
-  <si>
     <t>TF 2个fix scanner 连接到wms中</t>
   </si>
   <si>
-    <t>增加两个固定扫描，</t>
-  </si>
-  <si>
     <t>PO 为收货的DN允许删除</t>
   </si>
   <si>
@@ -812,18 +803,6 @@
     <t>WMS开发特殊申请流程，用于高于BOM单耗部</t>
   </si>
   <si>
-    <t>泰国工厂WMS测试环境搭建</t>
-  </si>
-  <si>
-    <t>20_20201009040</t>
-  </si>
-  <si>
-    <t>Vendor cannot create DN in WMS</t>
-  </si>
-  <si>
-    <t>20_20200928063</t>
-  </si>
-  <si>
     <t>FA扫描</t>
   </si>
   <si>
@@ -869,8 +848,128 @@
     <t>WMS开发特殊申请流程。用于高于BOM单耗部分的发料</t>
   </si>
   <si>
+    <t>80/119097</t>
+  </si>
+  <si>
+    <t>泰国工厂Hrois测试环境搭建 80/119095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时搁置</t>
+  </si>
+  <si>
+    <t>必须是zoc订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联工厂（生产工厂）是否能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改出运期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除报关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除报关），说明删除原因，物流经理部门经理签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除议付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（其他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrois传输文件数据到印度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪富强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球物流云平台（进口订单信息接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球物流云平台（泰国进口订单信息接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.T+3舱位预算报表，系统已有端口，不过由于业务变更，报表中需要增加candy小微/candy出口小微的数据（成交方式是FOB）
+2.T+1月预算，开发高商预算提报端口，他们录入完成之后，我们可以从系统直接取数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除议付）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泰国工厂Hrois测试环境搭建 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80/119095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（其他）（不商检）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除报关分配/订舱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除获取装箱信息）</t>
+  </si>
+  <si>
+    <t>调度单（删除获取装箱信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已提需求</t>
+  </si>
+  <si>
+    <t>需求变更，已经确定需求，需要杨振龙协助</t>
+  </si>
+  <si>
+    <t>宋坤琦/袁超峰</t>
+  </si>
+  <si>
+    <t>需求已沟通已经排期</t>
+  </si>
+  <si>
+    <t>宋坤琦/杨振龙</t>
+  </si>
+  <si>
+    <t>需求已经排期</t>
+  </si>
+  <si>
+    <t>印度开发wms对外接口 用于查询sto数据</t>
+  </si>
+  <si>
+    <t>印度根根据需求查询数据一个是根据</t>
+  </si>
+  <si>
     <t>20_20201009043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -878,7 +977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>在</t>
     </r>
@@ -887,7 +986,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>SAP</t>
     </r>
@@ -896,7 +994,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>系统中不显示</t>
     </r>
@@ -905,110 +1003,87 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>cost cenrer</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80/119097</t>
-  </si>
-  <si>
-    <t>GTM/WMS接口调查</t>
-  </si>
-  <si>
-    <t>泰国工厂Hrois测试环境搭建 80/119095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时搁置</t>
-  </si>
-  <si>
-    <t>必须是zoc订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联工厂（生产工厂）是否能修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改出运期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除报关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除报关），说明删除原因，物流经理部门经理签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除议付）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（其他）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hrois传输文件数据到印度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪富强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球物流云平台（进口订单信息接口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全球物流云平台（泰国进口订单信息接口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.T+3舱位预算报表，系统已有端口，不过由于业务变更，报表中需要增加candy小微/candy出口小微的数据（成交方式是FOB）
-2.T+1月预算，开发高商预算提报端口，他们录入完成之后，我们可以从系统直接取数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除议付）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泰国工厂Hrois测试环境搭建 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80/119095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（其他）（不商检）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除报关分配/订舱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单（删除获取装箱信息）</t>
-  </si>
-  <si>
-    <t>调度单（删除获取装箱信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于笑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰国工厂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>WMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试环境搭建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>GTM/WMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口调查</t>
+    </r>
+  </si>
+  <si>
+    <t>张玉柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求，修改排期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360和eai发版后开始发版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五下午修改需求，问下时间问题？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加两个固定扫描，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成，测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码mbp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1091,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,23 +1201,10 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1151,13 +1213,36 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1236,6 +1321,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1285,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,74 +1489,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1480,6 +1512,76 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1994,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2204,13 +2306,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>105</v>
@@ -2405,13 +2507,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>111</v>
@@ -2435,13 +2537,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>111</v>
@@ -2496,7 +2598,7 @@
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1">
+    <row r="15" spans="1:14" ht="19" customHeight="1">
       <c r="A15" s="30">
         <v>13</v>
       </c>
@@ -2534,7 +2636,7 @@
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="84" t="s">
         <v>117</v>
       </c>
       <c r="C16" s="45" t="s">
@@ -2568,7 +2670,7 @@
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="84" t="s">
         <v>118</v>
       </c>
       <c r="C17" s="45" t="s">
@@ -2600,13 +2702,13 @@
     </row>
     <row r="18" spans="1:14" ht="22">
       <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>121</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>39</v>
@@ -2617,32 +2719,32 @@
       <c r="F18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="37"/>
       <c r="J18" s="39">
-        <v>44134</v>
+        <v>44148</v>
       </c>
       <c r="K18" s="39">
-        <v>44147</v>
+        <v>44162</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22">
       <c r="A19" s="30">
-        <v>19</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>39</v>
@@ -2654,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="37"/>
@@ -2667,18 +2769,18 @@
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="40" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="22">
       <c r="A20" s="30">
-        <v>20</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>126</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>39</v>
@@ -2689,32 +2791,32 @@
       <c r="F20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>33</v>
+      <c r="G20" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="37"/>
       <c r="J20" s="39">
-        <v>44148</v>
+        <v>44134</v>
       </c>
       <c r="K20" s="39">
-        <v>44162</v>
+        <v>44147</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
       <c r="N20" s="40" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23" customHeight="1">
       <c r="A21" s="30">
         <v>21</v>
       </c>
-      <c r="B21" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>221</v>
+      <c r="B21" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>211</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>39</v>
@@ -2726,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="37"/>
@@ -2744,11 +2846,11 @@
       <c r="A22" s="30">
         <v>22</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>208</v>
+      <c r="B22" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>198</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>39</v>
@@ -2774,11 +2876,11 @@
       <c r="A23" s="30">
         <v>23</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>217</v>
+      <c r="B23" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>207</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>39</v>
@@ -2790,7 +2892,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
@@ -2804,11 +2906,11 @@
       <c r="A24" s="30">
         <v>24</v>
       </c>
-      <c r="B24" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>222</v>
+      <c r="B24" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>212</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>39</v>
@@ -2830,11 +2932,11 @@
       <c r="A25" s="30">
         <v>25</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>210</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>220</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>39</v>
@@ -2858,10 +2960,10 @@
       <c r="A26" s="30">
         <v>26</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="54" t="s">
         <v>132</v>
       </c>
       <c r="D26" s="45" t="s">
@@ -2889,7 +2991,7 @@
       <c r="B27" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="45" t="s">
@@ -2904,7 +3006,9 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
-      <c r="J27" s="39"/>
+      <c r="J27" s="39">
+        <v>44127</v>
+      </c>
       <c r="K27" s="39"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -2917,8 +3021,8 @@
       <c r="B28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>216</v>
+      <c r="C28" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>13</v>
@@ -2932,7 +3036,6 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="37"/>
-      <c r="J28" s="39"/>
       <c r="K28" s="39"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
@@ -3031,13 +3134,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>18</v>
@@ -3058,17 +3161,17 @@
       <c r="A33" s="30">
         <v>18</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="74" t="s">
-        <v>202</v>
+      <c r="E33" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F33" s="37" t="s">
         <v>19</v>
@@ -3081,24 +3184,24 @@
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="40" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="21">
       <c r="A34" s="30">
         <v>33</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="74" t="s">
-        <v>202</v>
+      <c r="E34" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F34" s="37" t="s">
         <v>106</v>
@@ -3116,17 +3219,17 @@
       <c r="A35" s="30">
         <v>34</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="74" t="s">
-        <v>202</v>
+      <c r="E35" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>106</v>
@@ -3144,17 +3247,17 @@
       <c r="A36" s="30">
         <v>35</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="74" t="s">
-        <v>202</v>
+      <c r="E36" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>19</v>
@@ -3172,17 +3275,17 @@
       <c r="A37" s="30">
         <v>36</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="74" t="s">
-        <v>202</v>
+      <c r="E37" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F37" s="37" t="s">
         <v>19</v>
@@ -3200,17 +3303,17 @@
       <c r="A38" s="30">
         <v>37</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="74" t="s">
-        <v>202</v>
+      <c r="E38" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F38" s="37" t="s">
         <v>19</v>
@@ -3228,17 +3331,17 @@
       <c r="A39" s="30">
         <v>38</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="74" t="s">
-        <v>202</v>
+      <c r="E39" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="F39" s="37" t="s">
         <v>19</v>
@@ -3258,7 +3361,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E1048576 E1:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"需求沟通,需求已沟通需要排期,需求开发中,需求测试中,测试完成需上线,已上线正跟踪,需求验收"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33:E39 E16:E25" xr:uid="{19512BD9-4A4F-2040-89C2-326DDDEA698B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33:E39 E21:E25 E16:E20" xr:uid="{19512BD9-4A4F-2040-89C2-326DDDEA698B}">
       <formula1>"需求沟通,需求已沟通需要排期,需求开发中,需求测试中,测试完成需上线,已上线正跟踪,需求验收,暂时搁置"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3269,523 +3372,609 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="11" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="66">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:16" ht="66">
+      <c r="A1" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22">
-      <c r="A2" s="64">
+    <row r="2" spans="1:16" ht="22">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="63">
         <v>15</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="54">
+      <c r="J2" s="62"/>
+      <c r="K2" s="65">
         <v>44084</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="65">
         <v>44104</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2" s="65">
         <v>44084</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2" s="65">
         <v>44104</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="61" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21">
-      <c r="A3" s="65">
+    <row r="3" spans="1:16" ht="22">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55" t="s">
+      <c r="D3" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="68">
         <v>28</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="58">
+      <c r="J3" s="67"/>
+      <c r="K3" s="70">
         <v>44094</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="70">
         <v>44121</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="70">
         <v>44094</v>
       </c>
-      <c r="N3" s="58">
+      <c r="N3" s="70">
         <v>44121</v>
       </c>
-      <c r="O3" s="59"/>
-    </row>
-    <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="65">
+      <c r="O3" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="21">
+      <c r="A4" s="66">
         <v>3</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="68">
         <v>15</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58">
+      <c r="J4" s="67"/>
+      <c r="K4" s="70">
         <v>44101</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="70">
         <v>44124</v>
       </c>
-      <c r="M4" s="58">
+      <c r="M4" s="70">
         <v>44101</v>
       </c>
-      <c r="N4" s="58">
+      <c r="N4" s="70">
         <v>44124</v>
       </c>
-      <c r="O4" s="55"/>
-    </row>
-    <row r="5" spans="1:15" ht="21">
-      <c r="A5" s="65">
+      <c r="O4" s="67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="21">
+      <c r="A5" s="66">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="68">
         <v>5</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="58">
+      <c r="J5" s="67"/>
+      <c r="K5" s="70">
         <v>44101</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="70">
         <v>44114</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="70">
         <v>44101</v>
       </c>
-      <c r="N5" s="58">
+      <c r="N5" s="70">
         <v>44119</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21">
+      <c r="A6" s="66">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="21">
-      <c r="A6" s="65">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55" t="s">
+      <c r="C6" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="68">
+        <v>15</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="70">
+        <v>44101</v>
+      </c>
+      <c r="L6" s="70">
+        <v>44124</v>
+      </c>
+      <c r="M6" s="70">
+        <v>44101</v>
+      </c>
+      <c r="N6" s="70">
+        <v>44119</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21">
+      <c r="A7" s="71">
+        <v>6</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55" t="s">
+      <c r="C7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F7" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="73">
+        <v>3</v>
+      </c>
+      <c r="J7" s="72"/>
+      <c r="K7" s="74">
+        <v>44121</v>
+      </c>
+      <c r="L7" s="74">
+        <v>44124</v>
+      </c>
+      <c r="M7" s="74">
+        <v>44121</v>
+      </c>
+      <c r="N7" s="74">
+        <v>44121</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21">
+      <c r="A8" s="71">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="56">
-        <v>15</v>
-      </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="58">
-        <v>44101</v>
-      </c>
-      <c r="L6" s="58">
+      <c r="C8" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="73">
+        <v>1</v>
+      </c>
+      <c r="J8" s="72"/>
+      <c r="K8" s="74">
         <v>44124</v>
       </c>
-      <c r="M6" s="58">
-        <v>44101</v>
-      </c>
-      <c r="N6" s="58">
-        <v>44119</v>
-      </c>
-      <c r="O6" s="55"/>
-    </row>
-    <row r="7" spans="1:15" ht="21">
-      <c r="A7" s="66">
-        <v>6</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="L8" s="74">
+        <v>44125</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="21">
+      <c r="A9" s="71">
+        <v>8</v>
+      </c>
+      <c r="B9" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="1:15" ht="21">
-      <c r="A8" s="66">
-        <v>7</v>
-      </c>
-      <c r="B8" s="60" t="s">
+      <c r="C9" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="73">
+        <v>1</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="74">
+        <v>44125</v>
+      </c>
+      <c r="L9" s="74">
+        <v>44126</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21">
+      <c r="A10" s="75">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:15" ht="21">
-      <c r="A9" s="66">
-        <v>8</v>
-      </c>
-      <c r="B9" s="60" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="77">
+        <v>3</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="78">
+        <v>44125</v>
+      </c>
+      <c r="L10" s="78">
+        <v>44128</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21">
+      <c r="A11" s="79">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1">
+      <c r="B14" s="49"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="80"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" thickBot="1">
+      <c r="B15" s="49"/>
+      <c r="C15" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-    </row>
-    <row r="10" spans="1:15" ht="21">
-      <c r="A10" s="67">
-        <v>9</v>
-      </c>
-      <c r="B10" s="62" t="s">
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="80"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1">
+      <c r="B16" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:15" ht="21">
-      <c r="A11" s="68">
-        <v>10</v>
-      </c>
-      <c r="B11" s="62" t="s">
+      <c r="C16" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-    </row>
-    <row r="14" spans="1:15" ht="16" thickBot="1">
-      <c r="B14" s="69" t="s">
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="2:8" ht="16" thickBot="1">
+      <c r="B17" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="2:8" ht="16" thickBot="1">
+      <c r="B18" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="70"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" thickBot="1">
-      <c r="B15" s="69" t="s">
+      <c r="C18" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="80"/>
+    </row>
+    <row r="19" spans="2:8" ht="16" thickBot="1">
+      <c r="B19" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="70"/>
-    </row>
-    <row r="16" spans="1:15" ht="16" thickBot="1">
-      <c r="B16" s="69" t="s">
+      <c r="C19" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="80"/>
+    </row>
+    <row r="20" spans="2:8" ht="16" thickBot="1">
+      <c r="B20" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="70"/>
-    </row>
-    <row r="17" spans="2:8" ht="16" thickBot="1">
-      <c r="B17" s="69" t="s">
+      <c r="C20" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="80"/>
+    </row>
+    <row r="21" spans="2:8" ht="16" thickBot="1">
+      <c r="B21" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70"/>
-    </row>
-    <row r="18" spans="2:8" ht="16" thickBot="1">
-      <c r="B18" s="69" t="s">
+      <c r="C21" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="80"/>
+    </row>
+    <row r="22" spans="2:8" ht="16" thickBot="1">
+      <c r="B22" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="70"/>
-    </row>
-    <row r="19" spans="2:8" ht="16" thickBot="1">
-      <c r="B19" s="69" t="s">
+      <c r="C22" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="70"/>
-    </row>
-    <row r="20" spans="2:8" ht="16" thickBot="1">
-      <c r="B20" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="70"/>
-    </row>
-    <row r="21" spans="2:8" ht="16" thickBot="1">
-      <c r="B21" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="70"/>
-    </row>
-    <row r="22" spans="2:8" ht="16" thickBot="1">
-      <c r="B22" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="70"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>178</v>
+      <c r="C24" s="83" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="C25" s="73" t="s">
-        <v>200</v>
+      <c r="C25" s="82" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/Hrois+Hovas+单证/01_项目需求/大运维开发计划_20201012-PSI补充.xlsx
+++ b/Hrois+Hovas+单证/01_项目需求/大运维开发计划_20201012-PSI补充.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caven/Documents/项目文档、学习文件、个人文件/项目文档/海外/horis资料库/overseas-projects/Hrois+Hovas+单证/01_项目需求/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64C6F60-67C3-F646-92EF-B697A3FFFE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CA0C74-0B06-B946-A9F1-A406D3EFE5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="241">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,6 +977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>在</t>
@@ -986,6 +987,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SAP</t>
     </r>
@@ -994,6 +996,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>系统中不显示</t>
@@ -1003,6 +1006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>cost cenrer</t>
     </r>
@@ -1013,6 +1017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>泰国工厂</t>
@@ -1022,6 +1027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>WMS</t>
     </r>
@@ -1030,6 +1036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>测试环境搭建</t>
@@ -1041,6 +1048,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GTM/WMS</t>
     </r>
@@ -1049,6 +1057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接口调查</t>
@@ -1084,6 +1093,30 @@
   </si>
   <si>
     <t>二维码mbp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（到货期）（邮件功能提醒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（更改箱型箱量 ）（邮件功能提醒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（更改运输方式）（邮件功能提醒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要和sap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除报关分配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单（删除订舱）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,29 +1249,34 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2094,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2110,7 +2148,7 @@
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="9" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -2478,17 +2516,17 @@
       <c r="A11" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>111</v>
+      <c r="E11" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>19</v>
@@ -2506,17 +2544,17 @@
       <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>111</v>
+      <c r="E12" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>19</v>
@@ -2536,17 +2574,17 @@
       <c r="A13" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>111</v>
+      <c r="E13" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>19</v>
@@ -2637,7 +2675,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>117</v>
@@ -2671,7 +2709,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>118</v>
@@ -2705,7 +2743,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>126</v>
@@ -2813,7 +2851,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>211</v>
@@ -2842,15 +2880,13 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="1:14" ht="22">
-      <c r="A22" s="30">
-        <v>22</v>
-      </c>
+    <row r="22" spans="1:14" ht="23" customHeight="1">
+      <c r="A22" s="30"/>
       <c r="B22" s="53" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>39</v>
@@ -2861,26 +2897,24 @@
       <c r="F22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>33</v>
-      </c>
+      <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="23" customHeight="1">
+    <row r="23" spans="1:14" ht="22">
       <c r="A23" s="30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>39</v>
@@ -2892,7 +2926,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="H23" s="36"/>
       <c r="I23" s="37"/>
@@ -2904,13 +2938,13 @@
     </row>
     <row r="24" spans="1:14" ht="23" customHeight="1">
       <c r="A24" s="30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>39</v>
@@ -2918,25 +2952,31 @@
       <c r="E24" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>214</v>
+      </c>
       <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="37" t="s">
+        <v>238</v>
+      </c>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14" ht="22">
+    <row r="25" spans="1:14" ht="23" customHeight="1">
       <c r="A25" s="30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>39</v>
@@ -2944,9 +2984,7 @@
       <c r="E25" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" s="37"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="37"/>
@@ -2956,18 +2994,18 @@
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:14" ht="63" customHeight="1">
+    <row r="26" spans="1:14" ht="22">
       <c r="A26" s="30">
-        <v>26</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>132</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>210</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>112</v>
@@ -2978,21 +3016,21 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14" ht="223" customHeight="1">
+    <row r="27" spans="1:14" ht="63" customHeight="1">
       <c r="A27" s="30">
-        <v>27</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="D27" s="45" t="s">
         <v>13</v>
@@ -3006,23 +3044,21 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
       <c r="I27" s="37"/>
-      <c r="J27" s="39">
-        <v>44127</v>
-      </c>
+      <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
     </row>
-    <row r="28" spans="1:14" ht="95" customHeight="1">
+    <row r="28" spans="1:14" ht="223" customHeight="1">
       <c r="A28" s="30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>13</v>
@@ -3036,23 +3072,26 @@
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="37"/>
+      <c r="J28" s="39">
+        <v>44127</v>
+      </c>
       <c r="K28" s="39"/>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
     </row>
-    <row r="29" spans="1:14" ht="21">
+    <row r="29" spans="1:14" ht="95" customHeight="1">
       <c r="A29" s="30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>134</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>112</v>
@@ -3063,28 +3102,23 @@
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
       <c r="I29" s="37"/>
-      <c r="J29" s="39">
-        <v>44130</v>
-      </c>
-      <c r="K29" s="39">
-        <v>44134</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
     </row>
     <row r="30" spans="1:14" ht="21">
       <c r="A30" s="30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="45" t="s">
         <v>112</v>
@@ -3092,33 +3126,37 @@
       <c r="F30" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="39">
+        <v>44130</v>
+      </c>
+      <c r="K30" s="39">
+        <v>44134</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="21">
       <c r="A31" s="30">
-        <v>31</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -3131,16 +3169,16 @@
     </row>
     <row r="32" spans="1:14" ht="21">
       <c r="A32" s="30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>18</v>
@@ -3157,45 +3195,43 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="22">
+    <row r="33" spans="1:14" ht="21">
       <c r="A33" s="30">
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="F33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="22">
+      <c r="A34" s="30">
+        <v>18</v>
+      </c>
+      <c r="B34" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C34" s="52" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="21">
-      <c r="A34" s="30">
-        <v>33</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>119</v>
       </c>
       <c r="D34" s="51" t="s">
         <v>39</v>
@@ -3204,26 +3240,28 @@
         <v>192</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="G34" s="36"/>
       <c r="H34" s="36"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
-      <c r="N34" s="40"/>
+      <c r="N34" s="40" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="21">
       <c r="A35" s="30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="51" t="s">
         <v>39</v>
@@ -3234,7 +3272,7 @@
       <c r="F35" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="36"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="36"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -3243,15 +3281,15 @@
       <c r="M35" s="37"/>
       <c r="N35" s="40"/>
     </row>
-    <row r="36" spans="1:14" ht="22">
+    <row r="36" spans="1:14" ht="21">
       <c r="A36" s="30">
-        <v>35</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="D36" s="51" t="s">
         <v>39</v>
@@ -3260,7 +3298,7 @@
         <v>192</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
@@ -3273,13 +3311,13 @@
     </row>
     <row r="37" spans="1:14" ht="22">
       <c r="A37" s="30">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="51" t="s">
         <v>39</v>
@@ -3290,7 +3328,7 @@
       <c r="F37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="36"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -3301,13 +3339,13 @@
     </row>
     <row r="38" spans="1:14" ht="22">
       <c r="A38" s="30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>39</v>
@@ -3329,16 +3367,16 @@
     </row>
     <row r="39" spans="1:14" ht="22">
       <c r="A39" s="30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>192</v>
@@ -3346,22 +3384,50 @@
       <c r="F39" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="36"/>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
+      <c r="N39" s="40"/>
+    </row>
+    <row r="40" spans="1:14" ht="22">
+      <c r="A40" s="30">
+        <v>38</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E1048576 E1:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:E1048576 E1:E15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"需求沟通,需求已沟通需要排期,需求开发中,需求测试中,测试完成需上线,已上线正跟踪,需求验收"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33:E39 E21:E25 E16:E20" xr:uid="{19512BD9-4A4F-2040-89C2-326DDDEA698B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E40 E16:E26" xr:uid="{19512BD9-4A4F-2040-89C2-326DDDEA698B}">
       <formula1>"需求沟通,需求已沟通需要排期,需求开发中,需求测试中,测试完成需上线,已上线正跟踪,需求验收,暂时搁置"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3375,7 +3441,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
